--- a/data/final/rug_herrschners_upd.xlsx
+++ b/data/final/rug_herrschners_upd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesch\OneDrive\Documents\GitHub\pixelate\data\darkside\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesch\OneDrive\Documents\GitHub\pixelate\data\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,69 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="2">
   <si>
     <t>black</t>
   </si>
   <si>
-    <t>pewter</t>
-  </si>
-  <si>
-    <t>dark-grey</t>
-  </si>
-  <si>
-    <t>medium-grey</t>
-  </si>
-  <si>
-    <t>grey</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>lime</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>light-aqua</t>
-  </si>
-  <si>
-    <t>bright-yellow</t>
-  </si>
-  <si>
-    <t>dark-red</t>
-  </si>
-  <si>
     <t>straw-yellow</t>
-  </si>
-  <si>
-    <t>cornflower</t>
-  </si>
-  <si>
-    <t>burgundy</t>
-  </si>
-  <si>
-    <t>light-orange</t>
-  </si>
-  <si>
-    <t>spring-green</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>bright-red</t>
-  </si>
-  <si>
-    <t>terra-cotta</t>
-  </si>
-  <si>
-    <t>medium-brown</t>
-  </si>
-  <si>
-    <t>white</t>
   </si>
 </sst>
 </file>
@@ -123,7 +66,2167 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="432">
+  <dxfs count="648">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7B938"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE9E5DB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFE8EB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD69A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF07777E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F341D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCF9B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF49A2C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF97B34F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF235F4E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE58164"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF723E36"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC0606D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAE1C17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3C5924"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF59FB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2E3033"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3D58A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA9A864"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7BABE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C5AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE4B1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAE6C22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0E5528"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEC5220"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF091F28"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF525020"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF086883"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF828282"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDC8631"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3A5B3A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF865233"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0A8F87"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF602512"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC0BB3B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF419DBC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD28F54"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAE6571"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF07725"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCBAECD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA2CBEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7AC6B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAA7AA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF36543E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC1C5CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF498E51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4DFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0A555F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC3785A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0D173B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB81948"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF821323"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF571E60"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDC4675"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF885893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF585C69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF252F1A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1A4479"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA93426"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA57648"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF597AAE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF39130B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC84514"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF650E27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4B1D10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA05022"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBEA1B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC9161F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF71563D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2D2965"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C181E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4A4432"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7B938"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE9E5DB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFE8EB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD69A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF07777E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F341D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCF9B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF49A2C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF97B34F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF235F4E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE58164"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF723E36"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC0606D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAE1C17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3C5924"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF59FB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2E3033"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3D58A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA9A864"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7BABE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C5AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE4B1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAE6C22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0E5528"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEC5220"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF091F28"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF525020"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF086883"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF828282"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDC8631"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3A5B3A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF865233"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0A8F87"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF602512"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC0BB3B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF419DBC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD28F54"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAE6571"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF07725"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCBAECD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA2CBEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7AC6B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAA7AA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF36543E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC1C5CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF498E51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4DFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0A555F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC3785A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0D173B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB81948"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF821323"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF571E60"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDC4675"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF885893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF585C69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF252F1A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1A4479"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA93426"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA57648"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF597AAE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF39130B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC84514"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF650E27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4B1D10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA05022"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBEA1B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC9161F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF71563D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2D2965"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C181E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4A4432"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE7B938"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE9E5DB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFE8EB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAD69A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF07777E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7F341D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFCF9B2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF49A2C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF97B34F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF235F4E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE58164"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF723E36"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC0606D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAE1C17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3C5924"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF59FB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2E3033"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF3D58A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA9A864"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF7BABE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF9C5AE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDE4B1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAE6C22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0E5528"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEC5220"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF091F28"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF525020"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF086883"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF828282"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDC8631"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3A5B3A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF865233"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0A8F87"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF602512"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC0BB3B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF419DBC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD28F54"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAE6571"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF07725"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCBAECD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA2CBEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7AC6B9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAA7AA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF36543E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC1C5CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF498E51"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4DFBA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0A555F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC3785A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0D173B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB81948"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF821323"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF571E60"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDC4675"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF885893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF585C69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF252F1A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1A4479"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA93426"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA57648"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF597AAE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF39130B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC84514"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF650E27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4B1D10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA05022"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFBEA1B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC9161F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF71563D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2D2965"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF1C181E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4A4432"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -4744,10 +6847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX22"/>
+  <dimension ref="A1:AZ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR22" sqref="AR22"/>
+      <selection activeCell="A11" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4755,7 +6858,7 @@
     <col min="1" max="50" width="2.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4907,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5059,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5211,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -5363,7 +7466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5515,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -5667,7 +7770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -5819,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -5970,8 +8073,11 @@
       <c r="AX8" t="s">
         <v>0</v>
       </c>
+      <c r="AZ8" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -6123,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -6275,7 +8381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -6427,1551 +8533,680 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
-        <v>0</v>
-      </c>
-      <c r="T12" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>0</v>
-      </c>
-      <c r="V12" t="s">
-        <v>0</v>
-      </c>
-      <c r="W12" t="s">
-        <v>0</v>
-      </c>
-      <c r="X12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>0</v>
+    <row r="19" spans="33:45" x14ac:dyDescent="0.55000000000000004">
+      <c r="AG19" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" t="s">
-        <v>0</v>
-      </c>
-      <c r="U13" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13" t="s">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s">
-        <v>0</v>
-      </c>
-      <c r="X13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>0</v>
+    <row r="20" spans="33:45" x14ac:dyDescent="0.55000000000000004">
+      <c r="AM20" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" t="s">
-        <v>0</v>
-      </c>
-      <c r="S14" t="s">
-        <v>0</v>
-      </c>
-      <c r="T14" t="s">
-        <v>0</v>
-      </c>
-      <c r="U14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X14" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" t="s">
-        <v>0</v>
-      </c>
-      <c r="S15" t="s">
-        <v>0</v>
-      </c>
-      <c r="T15" t="s">
-        <v>0</v>
-      </c>
-      <c r="U15" t="s">
-        <v>0</v>
-      </c>
-      <c r="V15" t="s">
-        <v>0</v>
-      </c>
-      <c r="W15" t="s">
-        <v>0</v>
-      </c>
-      <c r="X15" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>0</v>
-      </c>
-      <c r="S16" t="s">
-        <v>0</v>
-      </c>
-      <c r="T16" t="s">
-        <v>0</v>
-      </c>
-      <c r="U16" t="s">
-        <v>0</v>
-      </c>
-      <c r="V16" t="s">
-        <v>0</v>
-      </c>
-      <c r="W16" t="s">
-        <v>0</v>
-      </c>
-      <c r="X16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>0</v>
-      </c>
-      <c r="R17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S17" t="s">
-        <v>0</v>
-      </c>
-      <c r="T17" t="s">
-        <v>0</v>
-      </c>
-      <c r="U17" t="s">
-        <v>0</v>
-      </c>
-      <c r="V17" t="s">
-        <v>0</v>
-      </c>
-      <c r="W17" t="s">
-        <v>0</v>
-      </c>
-      <c r="X17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" t="s">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>0</v>
-      </c>
-      <c r="R18" t="s">
-        <v>0</v>
-      </c>
-      <c r="S18" t="s">
-        <v>0</v>
-      </c>
-      <c r="T18" t="s">
-        <v>0</v>
-      </c>
-      <c r="U18" t="s">
-        <v>0</v>
-      </c>
-      <c r="V18" t="s">
-        <v>0</v>
-      </c>
-      <c r="W18" t="s">
-        <v>20</v>
-      </c>
-      <c r="X18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>0</v>
-      </c>
-      <c r="S19" t="s">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
-        <v>0</v>
-      </c>
-      <c r="U19" t="s">
-        <v>20</v>
-      </c>
-      <c r="V19" t="s">
-        <v>20</v>
-      </c>
-      <c r="W19" t="s">
-        <v>20</v>
-      </c>
-      <c r="X19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC19" t="s">
+    <row r="21" spans="33:45" x14ac:dyDescent="0.55000000000000004">
+      <c r="AR21" t="s">
         <v>1</v>
       </c>
-      <c r="AD19" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>10</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>0</v>
-      </c>
-      <c r="O20" t="s">
-        <v>0</v>
-      </c>
-      <c r="P20" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" t="s">
-        <v>20</v>
-      </c>
-      <c r="S20" t="s">
-        <v>20</v>
-      </c>
-      <c r="T20" t="s">
-        <v>20</v>
-      </c>
-      <c r="U20" t="s">
-        <v>0</v>
-      </c>
-      <c r="V20" t="s">
-        <v>20</v>
-      </c>
-      <c r="W20" t="s">
-        <v>0</v>
-      </c>
-      <c r="X20" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>17</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>0</v>
-      </c>
-      <c r="R21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S21" t="s">
-        <v>0</v>
-      </c>
-      <c r="T21" t="s">
-        <v>0</v>
-      </c>
-      <c r="U21" t="s">
-        <v>20</v>
-      </c>
-      <c r="V21" t="s">
-        <v>0</v>
-      </c>
-      <c r="W21" t="s">
-        <v>0</v>
-      </c>
-      <c r="X21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>11</v>
-      </c>
       <c r="AS21" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.55000000000000004">
-      <c r="AR22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AX17 A22:AX38 A21:AB21 AD19:AX21 A18:X20 AB18:AX18 AB19 Z18:Z19 BA14:BA19 AZ20:BA20 BA21:BA22">
+  <conditionalFormatting sqref="A1:AX17 A22:AX38 A21:AB21 AD19:AX21 A18:X20 AB18:AX18 AB19 Z18:Z19 BA14:BA17 BA19:BA22">
+    <cfRule type="cellIs" dxfId="647" priority="649" operator="equal">
+      <formula>"antique-brass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="646" priority="650" operator="equal">
+      <formula>"black"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="645" priority="651" operator="equal">
+      <formula>"blue-violet"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="644" priority="652" operator="equal">
+      <formula>"brass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="643" priority="653" operator="equal">
+      <formula>"bright-red"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="642" priority="654" operator="equal">
+      <formula>"bright-yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="641" priority="655" operator="equal">
+      <formula>"bronze"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="640" priority="656" operator="equal">
+      <formula>"brown"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="639" priority="657" operator="equal">
+      <formula>"burgundy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="638" priority="658" operator="equal">
+      <formula>"burnt-orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="637" priority="659" operator="equal">
+      <formula>"coffee"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="636" priority="660" operator="equal">
+      <formula>"cornflower"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="635" priority="661" operator="equal">
+      <formula>"dark-beige"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="634" priority="662" operator="equal">
+      <formula>"dark-coral"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="633" priority="663" operator="equal">
+      <formula>"dark-cornflower"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="632" priority="664" operator="equal">
+      <formula>"dark-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="631" priority="665" operator="equal">
+      <formula>"dark-grey"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="630" priority="666" operator="equal">
+      <formula>"dark-lavender"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="629" priority="667" operator="equal">
+      <formula>"dark-pink"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="628" priority="668" operator="equal">
+      <formula>"dark-purple"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="627" priority="669" operator="equal">
+      <formula>"dark-red"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="626" priority="670" operator="equal">
+      <formula>"dark-rose"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="625" priority="671" operator="equal">
+      <formula>"dark-royal-blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="624" priority="672" operator="equal">
+      <formula>"dark-tan"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="623" priority="673" operator="equal">
+      <formula>"dark-teal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="622" priority="674" operator="equal">
+      <formula>"ecru"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="621" priority="675" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="620" priority="676" operator="equal">
+      <formula>"grey"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="619" priority="677" operator="equal">
+      <formula>"kelly-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="618" priority="678" operator="equal">
+      <formula>"lavender"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="617" priority="679" operator="equal">
+      <formula>"light-aqua"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="616" priority="680" operator="equal">
+      <formula>"light-blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="615" priority="681" operator="equal">
+      <formula>"light-lavender"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="614" priority="682" operator="equal">
+      <formula>"light-orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="613" priority="683" operator="equal">
+      <formula>"light-rose"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="612" priority="684" operator="equal">
+      <formula>"light-straw"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="611" priority="685" operator="equal">
+      <formula>"light-teal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="610" priority="686" operator="equal">
+      <formula>"lime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="609" priority="687" operator="equal">
+      <formula>"mahogany"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="608" priority="688" operator="equal">
+      <formula>"medium-aqua"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="607" priority="689" operator="equal">
+      <formula>"medium-brown"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="606" priority="690" operator="equal">
+      <formula>"medium-forest-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="605" priority="691" operator="equal">
+      <formula>"medium-gold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="604" priority="692" operator="equal">
+      <formula>"medium-grey"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="603" priority="693" operator="equal">
+      <formula>"medium-teal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="602" priority="694" operator="equal">
+      <formula>"moss-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="601" priority="695" operator="equal">
+      <formula>"navy-blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="600" priority="696" operator="equal">
+      <formula>"orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="599" priority="697" operator="equal">
+      <formula>"paddy-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="598" priority="698" operator="equal">
+      <formula>"pale-gold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="597" priority="699" operator="equal">
+      <formula>"pale-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="596" priority="700" operator="equal">
+      <formula>"pale-peach"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="595" priority="701" operator="equal">
+      <formula>"pale-pink"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="594" priority="702" operator="equal">
+      <formula>"pale-sage"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="593" priority="703" operator="equal">
+      <formula>"pale-yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="592" priority="704" operator="equal">
+      <formula>"pewter"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="591" priority="705" operator="equal">
+      <formula>"pink"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="590" priority="706" operator="equal">
+      <formula>"rainforest"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="589" priority="707" operator="equal">
+      <formula>"red"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="588" priority="708" operator="equal">
+      <formula>"rose"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="587" priority="709" operator="equal">
+      <formula>"rosewood"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="586" priority="710" operator="equal">
+      <formula>"salmon"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="585" priority="711" operator="equal">
+      <formula>"sea-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="584" priority="712" operator="equal">
+      <formula>"spring-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="583" priority="713" operator="equal">
+      <formula>"straw-yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="582" priority="714" operator="equal">
+      <formula>"sunny-yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="581" priority="715" operator="equal">
+      <formula>"terra-cotta"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="580" priority="716" operator="equal">
+      <formula>"turquoise"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="579" priority="717" operator="equal">
+      <formula>"vanilla"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="578" priority="718" operator="equal">
+      <formula>"very-light-blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="577" priority="719" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="576" priority="720" operator="equal">
+      <formula>"yellow"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC21">
+    <cfRule type="cellIs" dxfId="575" priority="577" operator="equal">
+      <formula>"antique-brass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="574" priority="578" operator="equal">
+      <formula>"black"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="573" priority="579" operator="equal">
+      <formula>"blue-violet"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="572" priority="580" operator="equal">
+      <formula>"brass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="571" priority="581" operator="equal">
+      <formula>"bright-red"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="570" priority="582" operator="equal">
+      <formula>"bright-yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="569" priority="583" operator="equal">
+      <formula>"bronze"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="568" priority="584" operator="equal">
+      <formula>"brown"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="567" priority="585" operator="equal">
+      <formula>"burgundy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="566" priority="586" operator="equal">
+      <formula>"burnt-orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="565" priority="587" operator="equal">
+      <formula>"coffee"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="564" priority="588" operator="equal">
+      <formula>"cornflower"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="563" priority="589" operator="equal">
+      <formula>"dark-beige"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="562" priority="590" operator="equal">
+      <formula>"dark-coral"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="561" priority="591" operator="equal">
+      <formula>"dark-cornflower"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="560" priority="592" operator="equal">
+      <formula>"dark-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="559" priority="593" operator="equal">
+      <formula>"dark-grey"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="558" priority="594" operator="equal">
+      <formula>"dark-lavender"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="557" priority="595" operator="equal">
+      <formula>"dark-pink"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="556" priority="596" operator="equal">
+      <formula>"dark-purple"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="555" priority="597" operator="equal">
+      <formula>"dark-red"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="554" priority="598" operator="equal">
+      <formula>"dark-rose"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="553" priority="599" operator="equal">
+      <formula>"dark-royal-blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="552" priority="600" operator="equal">
+      <formula>"dark-tan"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="551" priority="601" operator="equal">
+      <formula>"dark-teal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="550" priority="602" operator="equal">
+      <formula>"ecru"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="549" priority="603" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="548" priority="604" operator="equal">
+      <formula>"grey"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="547" priority="605" operator="equal">
+      <formula>"kelly-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="546" priority="606" operator="equal">
+      <formula>"lavender"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="545" priority="607" operator="equal">
+      <formula>"light-aqua"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="544" priority="608" operator="equal">
+      <formula>"light-blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="543" priority="609" operator="equal">
+      <formula>"light-lavender"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="542" priority="610" operator="equal">
+      <formula>"light-orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="541" priority="611" operator="equal">
+      <formula>"light-rose"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="540" priority="612" operator="equal">
+      <formula>"light-straw"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="539" priority="613" operator="equal">
+      <formula>"light-teal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="538" priority="614" operator="equal">
+      <formula>"lime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="537" priority="615" operator="equal">
+      <formula>"mahogany"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="536" priority="616" operator="equal">
+      <formula>"medium-aqua"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="535" priority="617" operator="equal">
+      <formula>"medium-brown"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="534" priority="618" operator="equal">
+      <formula>"medium-forest-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="533" priority="619" operator="equal">
+      <formula>"medium-gold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="532" priority="620" operator="equal">
+      <formula>"medium-grey"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="531" priority="621" operator="equal">
+      <formula>"medium-teal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="530" priority="622" operator="equal">
+      <formula>"moss-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="529" priority="623" operator="equal">
+      <formula>"navy-blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="528" priority="624" operator="equal">
+      <formula>"orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="527" priority="625" operator="equal">
+      <formula>"paddy-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="526" priority="626" operator="equal">
+      <formula>"pale-gold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="525" priority="627" operator="equal">
+      <formula>"pale-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="524" priority="628" operator="equal">
+      <formula>"pale-peach"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="523" priority="629" operator="equal">
+      <formula>"pale-pink"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="522" priority="630" operator="equal">
+      <formula>"pale-sage"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="521" priority="631" operator="equal">
+      <formula>"pale-yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="520" priority="632" operator="equal">
+      <formula>"pewter"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="519" priority="633" operator="equal">
+      <formula>"pink"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="518" priority="634" operator="equal">
+      <formula>"rainforest"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="517" priority="635" operator="equal">
+      <formula>"red"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="516" priority="636" operator="equal">
+      <formula>"rose"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="515" priority="637" operator="equal">
+      <formula>"rosewood"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="514" priority="638" operator="equal">
+      <formula>"salmon"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="513" priority="639" operator="equal">
+      <formula>"sea-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="512" priority="640" operator="equal">
+      <formula>"spring-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="511" priority="641" operator="equal">
+      <formula>"straw-yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="510" priority="642" operator="equal">
+      <formula>"sunny-yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="509" priority="643" operator="equal">
+      <formula>"terra-cotta"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="508" priority="644" operator="equal">
+      <formula>"turquoise"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="507" priority="645" operator="equal">
+      <formula>"vanilla"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="506" priority="646" operator="equal">
+      <formula>"very-light-blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="505" priority="647" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="504" priority="648" operator="equal">
+      <formula>"yellow"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC19:AC20">
+    <cfRule type="cellIs" dxfId="503" priority="505" operator="equal">
+      <formula>"antique-brass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="502" priority="506" operator="equal">
+      <formula>"black"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="501" priority="507" operator="equal">
+      <formula>"blue-violet"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="500" priority="508" operator="equal">
+      <formula>"brass"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="499" priority="509" operator="equal">
+      <formula>"bright-red"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="498" priority="510" operator="equal">
+      <formula>"bright-yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="497" priority="511" operator="equal">
+      <formula>"bronze"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="496" priority="512" operator="equal">
+      <formula>"brown"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="495" priority="513" operator="equal">
+      <formula>"burgundy"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="494" priority="514" operator="equal">
+      <formula>"burnt-orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="493" priority="515" operator="equal">
+      <formula>"coffee"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="492" priority="516" operator="equal">
+      <formula>"cornflower"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="491" priority="517" operator="equal">
+      <formula>"dark-beige"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="490" priority="518" operator="equal">
+      <formula>"dark-coral"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="489" priority="519" operator="equal">
+      <formula>"dark-cornflower"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="488" priority="520" operator="equal">
+      <formula>"dark-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="487" priority="521" operator="equal">
+      <formula>"dark-grey"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="486" priority="522" operator="equal">
+      <formula>"dark-lavender"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="485" priority="523" operator="equal">
+      <formula>"dark-pink"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="484" priority="524" operator="equal">
+      <formula>"dark-purple"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="483" priority="525" operator="equal">
+      <formula>"dark-red"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="482" priority="526" operator="equal">
+      <formula>"dark-rose"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="481" priority="527" operator="equal">
+      <formula>"dark-royal-blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="480" priority="528" operator="equal">
+      <formula>"dark-tan"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="479" priority="529" operator="equal">
+      <formula>"dark-teal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="478" priority="530" operator="equal">
+      <formula>"ecru"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="477" priority="531" operator="equal">
+      <formula>"green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="476" priority="532" operator="equal">
+      <formula>"grey"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="475" priority="533" operator="equal">
+      <formula>"kelly-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="474" priority="534" operator="equal">
+      <formula>"lavender"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="473" priority="535" operator="equal">
+      <formula>"light-aqua"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="472" priority="536" operator="equal">
+      <formula>"light-blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="471" priority="537" operator="equal">
+      <formula>"light-lavender"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="470" priority="538" operator="equal">
+      <formula>"light-orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="469" priority="539" operator="equal">
+      <formula>"light-rose"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="468" priority="540" operator="equal">
+      <formula>"light-straw"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="467" priority="541" operator="equal">
+      <formula>"light-teal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="466" priority="542" operator="equal">
+      <formula>"lime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="465" priority="543" operator="equal">
+      <formula>"mahogany"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="464" priority="544" operator="equal">
+      <formula>"medium-aqua"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="463" priority="545" operator="equal">
+      <formula>"medium-brown"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="462" priority="546" operator="equal">
+      <formula>"medium-forest-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="461" priority="547" operator="equal">
+      <formula>"medium-gold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="460" priority="548" operator="equal">
+      <formula>"medium-grey"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="459" priority="549" operator="equal">
+      <formula>"medium-teal"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="458" priority="550" operator="equal">
+      <formula>"moss-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="457" priority="551" operator="equal">
+      <formula>"navy-blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="456" priority="552" operator="equal">
+      <formula>"orange"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="455" priority="553" operator="equal">
+      <formula>"paddy-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="454" priority="554" operator="equal">
+      <formula>"pale-gold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="453" priority="555" operator="equal">
+      <formula>"pale-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="452" priority="556" operator="equal">
+      <formula>"pale-peach"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="451" priority="557" operator="equal">
+      <formula>"pale-pink"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="450" priority="558" operator="equal">
+      <formula>"pale-sage"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="449" priority="559" operator="equal">
+      <formula>"pale-yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="448" priority="560" operator="equal">
+      <formula>"pewter"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="447" priority="561" operator="equal">
+      <formula>"pink"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="446" priority="562" operator="equal">
+      <formula>"rainforest"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="445" priority="563" operator="equal">
+      <formula>"red"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="444" priority="564" operator="equal">
+      <formula>"rose"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="443" priority="565" operator="equal">
+      <formula>"rosewood"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="442" priority="566" operator="equal">
+      <formula>"salmon"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="441" priority="567" operator="equal">
+      <formula>"sea-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="440" priority="568" operator="equal">
+      <formula>"spring-green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="439" priority="569" operator="equal">
+      <formula>"straw-yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="438" priority="570" operator="equal">
+      <formula>"sunny-yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="437" priority="571" operator="equal">
+      <formula>"terra-cotta"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="436" priority="572" operator="equal">
+      <formula>"turquoise"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="435" priority="573" operator="equal">
+      <formula>"vanilla"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="434" priority="574" operator="equal">
+      <formula>"very-light-blue"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="433" priority="575" operator="equal">
+      <formula>"white"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="432" priority="576" operator="equal">
+      <formula>"yellow"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y18:Y19">
     <cfRule type="cellIs" dxfId="431" priority="433" operator="equal">
       <formula>"antique-brass"</formula>
     </cfRule>
@@ -8189,7 +9424,7 @@
       <formula>"yellow"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC21">
+  <conditionalFormatting sqref="AA18:AA19">
     <cfRule type="cellIs" dxfId="359" priority="361" operator="equal">
       <formula>"antique-brass"</formula>
     </cfRule>
@@ -8407,7 +9642,7 @@
       <formula>"yellow"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC19:AC20">
+  <conditionalFormatting sqref="Y20:AB20">
     <cfRule type="cellIs" dxfId="287" priority="289" operator="equal">
       <formula>"antique-brass"</formula>
     </cfRule>
@@ -8625,657 +9860,221 @@
       <formula>"yellow"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y18:Y19">
-    <cfRule type="cellIs" dxfId="215" priority="217" operator="equal">
+  <conditionalFormatting sqref="BA18">
+    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
       <formula>"antique-brass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="2" operator="equal">
       <formula>"black"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
       <formula>"blue-violet"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="4" operator="equal">
       <formula>"brass"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="5" operator="equal">
       <formula>"bright-red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="6" operator="equal">
       <formula>"bright-yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="7" operator="equal">
       <formula>"bronze"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="8" operator="equal">
       <formula>"brown"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="9" operator="equal">
       <formula>"burgundy"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="10" operator="equal">
       <formula>"burnt-orange"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="11" operator="equal">
       <formula>"coffee"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="12" operator="equal">
       <formula>"cornflower"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="13" operator="equal">
       <formula>"dark-beige"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="14" operator="equal">
       <formula>"dark-coral"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="15" operator="equal">
       <formula>"dark-cornflower"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="16" operator="equal">
       <formula>"dark-green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="17" operator="equal">
       <formula>"dark-grey"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="18" operator="equal">
       <formula>"dark-lavender"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="19" operator="equal">
       <formula>"dark-pink"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="20" operator="equal">
       <formula>"dark-purple"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="21" operator="equal">
       <formula>"dark-red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="22" operator="equal">
       <formula>"dark-rose"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="23" operator="equal">
       <formula>"dark-royal-blue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="24" operator="equal">
       <formula>"dark-tan"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
       <formula>"dark-teal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="26" operator="equal">
       <formula>"ecru"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="27" operator="equal">
       <formula>"green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
       <formula>"grey"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="29" operator="equal">
       <formula>"kelly-green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="30" operator="equal">
       <formula>"lavender"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="31" operator="equal">
       <formula>"light-aqua"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
       <formula>"light-blue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
       <formula>"light-lavender"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
       <formula>"light-orange"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
       <formula>"light-rose"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
       <formula>"light-straw"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
       <formula>"light-teal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
       <formula>"lime"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
       <formula>"mahogany"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
       <formula>"medium-aqua"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="41" operator="equal">
       <formula>"medium-brown"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="42" operator="equal">
       <formula>"medium-forest-green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="43" operator="equal">
       <formula>"medium-gold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
       <formula>"medium-grey"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="45" operator="equal">
       <formula>"medium-teal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="46" operator="equal">
       <formula>"moss-green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="47" operator="equal">
       <formula>"navy-blue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="48" operator="equal">
       <formula>"orange"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="49" operator="equal">
       <formula>"paddy-green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="50" operator="equal">
       <formula>"pale-gold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="51" operator="equal">
       <formula>"pale-green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="52" operator="equal">
       <formula>"pale-peach"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="53" operator="equal">
       <formula>"pale-pink"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="54" operator="equal">
       <formula>"pale-sage"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="55" operator="equal">
       <formula>"pale-yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="56" operator="equal">
       <formula>"pewter"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="57" operator="equal">
       <formula>"pink"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="58" operator="equal">
       <formula>"rainforest"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="59" operator="equal">
       <formula>"red"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="60" operator="equal">
       <formula>"rose"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="61" operator="equal">
       <formula>"rosewood"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="62" operator="equal">
       <formula>"salmon"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="63" operator="equal">
       <formula>"sea-green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="64" operator="equal">
       <formula>"spring-green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="65" operator="equal">
       <formula>"straw-yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="66" operator="equal">
       <formula>"sunny-yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="67" operator="equal">
       <formula>"terra-cotta"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="68" operator="equal">
       <formula>"turquoise"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="69" operator="equal">
       <formula>"vanilla"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="70" operator="equal">
       <formula>"very-light-blue"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="71" operator="equal">
       <formula>"white"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="288" operator="equal">
-      <formula>"yellow"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA18:AA19">
-    <cfRule type="cellIs" dxfId="143" priority="145" operator="equal">
-      <formula>"antique-brass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="146" operator="equal">
-      <formula>"black"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="147" operator="equal">
-      <formula>"blue-violet"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="148" operator="equal">
-      <formula>"brass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="149" operator="equal">
-      <formula>"bright-red"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="150" operator="equal">
-      <formula>"bright-yellow"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="151" operator="equal">
-      <formula>"bronze"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="152" operator="equal">
-      <formula>"brown"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="153" operator="equal">
-      <formula>"burgundy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="154" operator="equal">
-      <formula>"burnt-orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="155" operator="equal">
-      <formula>"coffee"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="156" operator="equal">
-      <formula>"cornflower"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="157" operator="equal">
-      <formula>"dark-beige"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="158" operator="equal">
-      <formula>"dark-coral"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="159" operator="equal">
-      <formula>"dark-cornflower"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="160" operator="equal">
-      <formula>"dark-green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="161" operator="equal">
-      <formula>"dark-grey"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="162" operator="equal">
-      <formula>"dark-lavender"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="163" operator="equal">
-      <formula>"dark-pink"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="164" operator="equal">
-      <formula>"dark-purple"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="165" operator="equal">
-      <formula>"dark-red"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="166" operator="equal">
-      <formula>"dark-rose"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="167" operator="equal">
-      <formula>"dark-royal-blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="168" operator="equal">
-      <formula>"dark-tan"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="169" operator="equal">
-      <formula>"dark-teal"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="170" operator="equal">
-      <formula>"ecru"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="171" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="172" operator="equal">
-      <formula>"grey"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="173" operator="equal">
-      <formula>"kelly-green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="174" operator="equal">
-      <formula>"lavender"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="175" operator="equal">
-      <formula>"light-aqua"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="176" operator="equal">
-      <formula>"light-blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="177" operator="equal">
-      <formula>"light-lavender"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="178" operator="equal">
-      <formula>"light-orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="179" operator="equal">
-      <formula>"light-rose"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="180" operator="equal">
-      <formula>"light-straw"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="181" operator="equal">
-      <formula>"light-teal"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="182" operator="equal">
-      <formula>"lime"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="183" operator="equal">
-      <formula>"mahogany"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="184" operator="equal">
-      <formula>"medium-aqua"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="185" operator="equal">
-      <formula>"medium-brown"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="186" operator="equal">
-      <formula>"medium-forest-green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="187" operator="equal">
-      <formula>"medium-gold"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="188" operator="equal">
-      <formula>"medium-grey"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="189" operator="equal">
-      <formula>"medium-teal"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="190" operator="equal">
-      <formula>"moss-green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="191" operator="equal">
-      <formula>"navy-blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="192" operator="equal">
-      <formula>"orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="193" operator="equal">
-      <formula>"paddy-green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="194" operator="equal">
-      <formula>"pale-gold"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="195" operator="equal">
-      <formula>"pale-green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="196" operator="equal">
-      <formula>"pale-peach"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="197" operator="equal">
-      <formula>"pale-pink"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="198" operator="equal">
-      <formula>"pale-sage"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="199" operator="equal">
-      <formula>"pale-yellow"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="200" operator="equal">
-      <formula>"pewter"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="201" operator="equal">
-      <formula>"pink"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="202" operator="equal">
-      <formula>"rainforest"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="203" operator="equal">
-      <formula>"red"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="204" operator="equal">
-      <formula>"rose"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="205" operator="equal">
-      <formula>"rosewood"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="206" operator="equal">
-      <formula>"salmon"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="207" operator="equal">
-      <formula>"sea-green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="208" operator="equal">
-      <formula>"spring-green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="209" operator="equal">
-      <formula>"straw-yellow"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="210" operator="equal">
-      <formula>"sunny-yellow"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="211" operator="equal">
-      <formula>"terra-cotta"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="212" operator="equal">
-      <formula>"turquoise"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="213" operator="equal">
-      <formula>"vanilla"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="214" operator="equal">
-      <formula>"very-light-blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="215" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="216" operator="equal">
-      <formula>"yellow"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y20:AB20">
-    <cfRule type="cellIs" dxfId="71" priority="73" operator="equal">
-      <formula>"antique-brass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="74" operator="equal">
-      <formula>"black"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="75" operator="equal">
-      <formula>"blue-violet"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="76" operator="equal">
-      <formula>"brass"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="77" operator="equal">
-      <formula>"bright-red"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="78" operator="equal">
-      <formula>"bright-yellow"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
-      <formula>"bronze"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="80" operator="equal">
-      <formula>"brown"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="81" operator="equal">
-      <formula>"burgundy"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
-      <formula>"burnt-orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="83" operator="equal">
-      <formula>"coffee"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="84" operator="equal">
-      <formula>"cornflower"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="85" operator="equal">
-      <formula>"dark-beige"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="86" operator="equal">
-      <formula>"dark-coral"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="87" operator="equal">
-      <formula>"dark-cornflower"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="88" operator="equal">
-      <formula>"dark-green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="89" operator="equal">
-      <formula>"dark-grey"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="90" operator="equal">
-      <formula>"dark-lavender"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="91" operator="equal">
-      <formula>"dark-pink"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="92" operator="equal">
-      <formula>"dark-purple"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="93" operator="equal">
-      <formula>"dark-red"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="94" operator="equal">
-      <formula>"dark-rose"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="95" operator="equal">
-      <formula>"dark-royal-blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="96" operator="equal">
-      <formula>"dark-tan"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="97" operator="equal">
-      <formula>"dark-teal"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="98" operator="equal">
-      <formula>"ecru"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="99" operator="equal">
-      <formula>"green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="100" operator="equal">
-      <formula>"grey"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="101" operator="equal">
-      <formula>"kelly-green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="102" operator="equal">
-      <formula>"lavender"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="103" operator="equal">
-      <formula>"light-aqua"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="104" operator="equal">
-      <formula>"light-blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="105" operator="equal">
-      <formula>"light-lavender"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="106" operator="equal">
-      <formula>"light-orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="107" operator="equal">
-      <formula>"light-rose"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="108" operator="equal">
-      <formula>"light-straw"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="109" operator="equal">
-      <formula>"light-teal"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="110" operator="equal">
-      <formula>"lime"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="111" operator="equal">
-      <formula>"mahogany"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="112" operator="equal">
-      <formula>"medium-aqua"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="113" operator="equal">
-      <formula>"medium-brown"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="114" operator="equal">
-      <formula>"medium-forest-green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="115" operator="equal">
-      <formula>"medium-gold"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="116" operator="equal">
-      <formula>"medium-grey"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="117" operator="equal">
-      <formula>"medium-teal"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="118" operator="equal">
-      <formula>"moss-green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="119" operator="equal">
-      <formula>"navy-blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="120" operator="equal">
-      <formula>"orange"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="121" operator="equal">
-      <formula>"paddy-green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="122" operator="equal">
-      <formula>"pale-gold"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="123" operator="equal">
-      <formula>"pale-green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="124" operator="equal">
-      <formula>"pale-peach"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="125" operator="equal">
-      <formula>"pale-pink"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="126" operator="equal">
-      <formula>"pale-sage"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="127" operator="equal">
-      <formula>"pale-yellow"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="128" operator="equal">
-      <formula>"pewter"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="129" operator="equal">
-      <formula>"pink"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="130" operator="equal">
-      <formula>"rainforest"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="131" operator="equal">
-      <formula>"red"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="132" operator="equal">
-      <formula>"rose"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="133" operator="equal">
-      <formula>"rosewood"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="134" operator="equal">
-      <formula>"salmon"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="135" operator="equal">
-      <formula>"sea-green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="136" operator="equal">
-      <formula>"spring-green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="137" operator="equal">
-      <formula>"straw-yellow"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="138" operator="equal">
-      <formula>"sunny-yellow"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="139" operator="equal">
-      <formula>"terra-cotta"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="140" operator="equal">
-      <formula>"turquoise"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="141" operator="equal">
-      <formula>"vanilla"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="142" operator="equal">
-      <formula>"very-light-blue"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="143" operator="equal">
-      <formula>"white"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="72" operator="equal">
       <formula>"yellow"</formula>
     </cfRule>
   </conditionalFormatting>
